--- a/files/excelFilesforFigures/Figure7a.xlsx
+++ b/files/excelFilesforFigures/Figure7a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C977E-1C06-4F8A-A81A-D4586350164A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92DF43-04CF-464F-A31E-B7D255FF53ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1843,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01847F4-D753-4458-80D1-CF47B11D8177}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>

--- a/files/excelFilesforFigures/Figure7a.xlsx
+++ b/files/excelFilesforFigures/Figure7a.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92DF43-04CF-464F-A31E-B7D255FF53ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28074A59-017C-45D8-8FD6-781A5211E1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,131 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>q86</t>
   </si>
   <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q80</t>
-  </si>
-  <si>
-    <t>q37</t>
-  </si>
-  <si>
-    <t>q12</t>
-  </si>
-  <si>
-    <t>q53</t>
-  </si>
-  <si>
-    <t>q28</t>
-  </si>
-  <si>
-    <t>q21</t>
-  </si>
-  <si>
     <t>q96</t>
   </si>
   <si>
-    <t>tenant2</t>
-  </si>
-  <si>
     <t>q58</t>
   </si>
   <si>
-    <t>q11</t>
-  </si>
-  <si>
-    <t>q88</t>
-  </si>
-  <si>
     <t>q18</t>
   </si>
   <si>
-    <t>q90</t>
-  </si>
-  <si>
-    <t>q62</t>
-  </si>
-  <si>
-    <t>Timer-89</t>
-  </si>
-  <si>
-    <t>Timer-90</t>
-  </si>
-  <si>
-    <t>Timer-91</t>
-  </si>
-  <si>
-    <t>Timer-92</t>
-  </si>
-  <si>
-    <t>q39</t>
-  </si>
-  <si>
-    <t>Timer-93</t>
-  </si>
-  <si>
-    <t>Timer-94</t>
-  </si>
-  <si>
-    <t>Timer-95</t>
-  </si>
-  <si>
-    <t>Timer-96</t>
-  </si>
-  <si>
-    <t>Timer-97</t>
-  </si>
-  <si>
-    <t>q31</t>
-  </si>
-  <si>
-    <t>Timer-98</t>
-  </si>
-  <si>
-    <t>tenant3</t>
-  </si>
-  <si>
-    <t>Timer-100</t>
-  </si>
-  <si>
-    <t>Timer-101</t>
-  </si>
-  <si>
-    <t>Timer-102</t>
-  </si>
-  <si>
-    <t>Timer-103</t>
-  </si>
-  <si>
     <t>q89</t>
   </si>
   <si>
-    <t>Timer-104</t>
-  </si>
-  <si>
-    <t>Timer-105</t>
-  </si>
-  <si>
-    <t>Timer-106</t>
-  </si>
-  <si>
-    <t>Timer-107</t>
-  </si>
-  <si>
-    <t>Timer-108</t>
-  </si>
-  <si>
-    <t>q20</t>
-  </si>
-  <si>
-    <t>Timer-109</t>
-  </si>
-  <si>
     <t>Launched</t>
   </si>
   <si>
@@ -163,6 +55,138 @@
   </si>
   <si>
     <t>Execution</t>
+  </si>
+  <si>
+    <t>tenant4</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>Timer-140</t>
+  </si>
+  <si>
+    <t>q54</t>
+  </si>
+  <si>
+    <t>Timer-141</t>
+  </si>
+  <si>
+    <t>Timer-142</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>Timer-143</t>
+  </si>
+  <si>
+    <t>q49</t>
+  </si>
+  <si>
+    <t>Timer-144</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>Timer-145</t>
+  </si>
+  <si>
+    <t>q29</t>
+  </si>
+  <si>
+    <t>Timer-146</t>
+  </si>
+  <si>
+    <t>tenant5</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>Timer-185</t>
+  </si>
+  <si>
+    <t>q98</t>
+  </si>
+  <si>
+    <t>Timer-186</t>
+  </si>
+  <si>
+    <t>q42</t>
+  </si>
+  <si>
+    <t>Timer-187</t>
+  </si>
+  <si>
+    <t>Timer-188</t>
+  </si>
+  <si>
+    <t>Timer-189</t>
+  </si>
+  <si>
+    <t>q41</t>
+  </si>
+  <si>
+    <t>Timer-190</t>
+  </si>
+  <si>
+    <t>Timer-191</t>
+  </si>
+  <si>
+    <t>Timer-192</t>
+  </si>
+  <si>
+    <t>q55</t>
+  </si>
+  <si>
+    <t>Timer-193</t>
+  </si>
+  <si>
+    <t>q97</t>
+  </si>
+  <si>
+    <t>Timer-194</t>
+  </si>
+  <si>
+    <t>tenant6</t>
+  </si>
+  <si>
+    <t>q78</t>
+  </si>
+  <si>
+    <t>Timer-221</t>
+  </si>
+  <si>
+    <t>q34</t>
+  </si>
+  <si>
+    <t>Timer-222</t>
+  </si>
+  <si>
+    <t>Timer-223</t>
+  </si>
+  <si>
+    <t>q93</t>
+  </si>
+  <si>
+    <t>Timer-224</t>
+  </si>
+  <si>
+    <t>q44</t>
+  </si>
+  <si>
+    <t>Timer-225</t>
+  </si>
+  <si>
+    <t>Timer-226</t>
+  </si>
+  <si>
+    <t>q69</t>
+  </si>
+  <si>
+    <t>Timer-227</t>
   </si>
 </sst>
 </file>
@@ -265,77 +289,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -343,69 +382,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$21</c:f>
+              <c:f>Feuil1!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.0601851851851854E-2</c:v>
+                  <c:v>4.7962962962962964E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0648148148148149E-2</c:v>
+                  <c:v>4.8437500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0671296296296296E-2</c:v>
+                  <c:v>4.8518518518518516E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0706018518518523E-2</c:v>
+                  <c:v>5.1319444444444445E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0844907407407406E-2</c:v>
+                  <c:v>5.1562500000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0856481481481487E-2</c:v>
+                  <c:v>5.2650462962962961E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.08912037037037E-2</c:v>
+                  <c:v>5.275462962962963E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0925925925925928E-2</c:v>
+                  <c:v>4.7430555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.099537037037037E-2</c:v>
+                  <c:v>4.8298611111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1064814814814811E-2</c:v>
+                  <c:v>4.8796296296296303E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7060185185185189E-2</c:v>
+                  <c:v>4.9386574074074076E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9386574074074074E-2</c:v>
+                  <c:v>4.9525462962962959E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1469907407407407E-2</c:v>
+                  <c:v>4.9525462962962959E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1643518518518517E-2</c:v>
+                  <c:v>4.9837962962962966E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1678240740740745E-2</c:v>
+                  <c:v>4.9895833333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3831018518518512E-2</c:v>
+                  <c:v>5.0185185185185187E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3935185185185188E-2</c:v>
+                  <c:v>5.0185185185185187E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4386574074074071E-2</c:v>
+                  <c:v>4.8900462962962965E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.445601851851852E-2</c:v>
+                  <c:v>4.9722222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6423611111111117E-2</c:v>
+                  <c:v>5.1921296296296299E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2199074074074071E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4039351851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5636574074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.590277777777778E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,77 +500,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -527,10 +593,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$2:$H$21</c:f>
+              <c:f>Feuil1!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
@@ -538,28 +604,28 @@
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3148148148148147E-5</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6296296296296293E-4</c:v>
+                  <c:v>9.6064814814814808E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4722222222222224E-4</c:v>
+                  <c:v>7.407407407407407E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0925925925925921E-4</c:v>
+                  <c:v>1.5162037037037036E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8611111111111104E-4</c:v>
+                  <c:v>1.4120370370370369E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7453703703703704E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0509259259259258E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6296296296296293E-4</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.1574074074074073E-5</c:v>
@@ -568,27 +634,39 @@
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>8.1018518518518516E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6296296296296294E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3148148148148147E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>6.134259259259259E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4583333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7453703703703702E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0416666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7453703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3148148148148146E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1574074074074073E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1574074074074073E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1574074074074073E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -628,77 +706,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feuil1!$A$2:$B$21</c:f>
+              <c:f>Feuil1!$A$2:$B$25</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>q62</c:v>
+                    <c:v>q4</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>q54</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>q18</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>q11</c:v>
-                  </c:pt>
                   <c:pt idx="3">
+                    <c:v>q14</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>q49</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>q8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>q29</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>q15</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>q98</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>q42</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>q96</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>q41</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>q86</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>q55</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>q97</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>q78</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>q34</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>q89</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>q93</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>q44</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>q58</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>q39</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>q53</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>q90</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>q88</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>q31</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>q80</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>q37</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>q28</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>q96</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>q89</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>q21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>q12</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>q3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>q86</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>q20</c:v>
+                  <c:pt idx="23">
+                    <c:v>q69</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>tenant2</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>tenant3</c:v>
+                    <c:v>tenant4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>tenant5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>tenant6</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -706,68 +799,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$2:$I$21</c:f>
+              <c:f>Feuil1!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>1.0416666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222222E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8287037037037025E-4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4722222222222222E-5</c:v>
+                  <c:v>1.1574074074074073E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7037037037037035E-4</c:v>
+                  <c:v>2.3148148148148147E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3148148148148147E-5</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3148148148148147E-5</c:v>
+                  <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>1.3657407407407409E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.273148148148148E-4</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5462962962962961E-4</c:v>
+                  <c:v>1.0185185185185186E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4722222222222222E-5</c:v>
+                  <c:v>1.261574074074074E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3148148148148147E-5</c:v>
+                  <c:v>2.3726851851851851E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3888888888888889E-4</c:v>
+                  <c:v>2.0486111111111113E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3148148148148147E-5</c:v>
+                  <c:v>2.4537037037037036E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4722222222222222E-5</c:v>
+                  <c:v>1.0069444444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4722222222222222E-5</c:v>
+                  <c:v>1.4814814814814814E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>4.0740740740740746E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>1.2268518518518518E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2.3148148148148147E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1574074074074073E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3148148148148147E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.1574074074074073E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -821,7 +926,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -847,7 +952,8 @@
         <c:axId val="1636053231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3.6000000000000004E-2"/>
+          <c:max val="6.0000000000000012E-2"/>
+          <c:min val="4.5000000000000012E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1841,548 +1947,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01847F4-D753-4458-80D1-CF47B11D8177}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.85679398148148145</v>
+        <v>0.36023148148148149</v>
       </c>
       <c r="E2" s="1">
-        <v>0.85679398148148145</v>
+        <v>0.36023148148148149</v>
       </c>
       <c r="F2" s="1">
-        <v>0.85680555555555549</v>
+        <v>0.36033564814814811</v>
       </c>
       <c r="G2" s="1">
-        <v>4.0601851851851854E-2</v>
+        <v>4.7962962962962964E-2</v>
       </c>
       <c r="H2" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="I2" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>1.0416666666666667E-4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>0.85685185185185186</v>
+        <v>0.36070601851851852</v>
       </c>
       <c r="E3" s="1">
-        <v>0.85685185185185186</v>
+        <v>0.36070601851851852</v>
       </c>
       <c r="F3" s="1">
-        <v>0.85688657407407398</v>
+        <v>0.36071759259259256</v>
       </c>
       <c r="G3" s="1">
-        <v>4.0648148148148149E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="H3" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="I3" s="1">
-        <v>3.4722222222222222E-5</v>
+        <v>2.3148148148148147E-5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0.8568634259259259</v>
+        <v>0.36078703703703702</v>
       </c>
       <c r="E4" s="1">
-        <v>0.85688657407407398</v>
+        <v>0.36078703703703702</v>
       </c>
       <c r="F4" s="1">
-        <v>0.85755787037037035</v>
+        <v>0.36079861111111106</v>
       </c>
       <c r="G4" s="1">
-        <v>4.0671296296296296E-2</v>
+        <v>4.8518518518518516E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I4" s="1">
-        <v>6.8287037037037025E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>0.85689814814814813</v>
+        <v>0.36358796296296297</v>
       </c>
       <c r="E5" s="1">
-        <v>0.85736111111111113</v>
+        <v>0.36453703703703705</v>
       </c>
       <c r="F5" s="1">
-        <v>0.85738425925925921</v>
+        <v>0.36464120370370368</v>
       </c>
       <c r="G5" s="1">
-        <v>4.0706018518518523E-2</v>
+        <v>5.1319444444444445E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>9.6064814814814808E-4</v>
       </c>
       <c r="I5" s="1">
-        <v>3.4722222222222222E-5</v>
+        <v>1.1574074074074073E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>0.85703703703703704</v>
+        <v>0.36383101851851851</v>
       </c>
       <c r="E6" s="1">
-        <v>0.85738425925925921</v>
+        <v>0.36456018518518518</v>
       </c>
       <c r="F6" s="1">
-        <v>0.85774305555555552</v>
+        <v>0.36457175925925928</v>
       </c>
       <c r="G6" s="1">
-        <v>4.0844907407407406E-2</v>
+        <v>5.1562500000000004E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="I6" s="1">
-        <v>3.7037037037037035E-4</v>
+        <v>2.3148148148148147E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
-        <v>0.85706018518518512</v>
+        <v>0.3649189814814815</v>
       </c>
       <c r="E7" s="1">
-        <v>0.85755787037037035</v>
+        <v>0.36642361111111116</v>
       </c>
       <c r="F7" s="1">
-        <v>0.8575694444444445</v>
+        <v>0.3664351851851852</v>
       </c>
       <c r="G7" s="1">
-        <v>4.0856481481481487E-2</v>
+        <v>5.2650462962962961E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0925925925925921E-4</v>
+        <v>1.5162037037037036E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>0.85709490740740746</v>
+        <v>0.36502314814814812</v>
       </c>
       <c r="E8" s="1">
-        <v>0.8575694444444445</v>
+        <v>0.3664351851851852</v>
       </c>
       <c r="F8" s="1">
-        <v>0.85759259259259257</v>
+        <v>0.3664351851851852</v>
       </c>
       <c r="G8" s="1">
-        <v>4.08912037037037E-2</v>
+        <v>5.275462962962963E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>4.8611111111111104E-4</v>
+        <v>1.4120370370370369E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>0.85712962962962969</v>
+        <v>0.35969907407407403</v>
       </c>
       <c r="E9" s="1">
-        <v>0.85759259259259257</v>
+        <v>0.35969907407407403</v>
       </c>
       <c r="F9" s="1">
-        <v>0.85760416666666661</v>
+        <v>0.36106481481481478</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0925925925925928E-2</v>
+        <v>4.7430555555555559E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>4.7453703703703704E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I9" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>1.3657407407407409E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
-        <v>0.85719907407407403</v>
+        <v>0.36056712962962961</v>
       </c>
       <c r="E10" s="1">
-        <v>0.85760416666666661</v>
+        <v>0.36056712962962961</v>
       </c>
       <c r="F10" s="1">
-        <v>0.85771990740740733</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="G10" s="1">
-        <v>4.099537037037037E-2</v>
+        <v>4.8298611111111112E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>4.0509259259259258E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I10" s="1">
-        <v>1.273148148148148E-4</v>
+        <v>1.25E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>0.8572685185185186</v>
+        <v>0.36106481481481478</v>
       </c>
       <c r="E11" s="1">
-        <v>0.85771990740740733</v>
+        <v>0.36106481481481478</v>
       </c>
       <c r="F11" s="1">
-        <v>0.85797453703703708</v>
+        <v>0.36208333333333331</v>
       </c>
       <c r="G11" s="1">
-        <v>4.1064814814814811E-2</v>
+        <v>4.8796296296296303E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I11" s="1">
-        <v>2.5462962962962961E-4</v>
+        <v>1.0185185185185186E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>0.85325231481481489</v>
+        <v>0.3616550925925926</v>
       </c>
       <c r="E12" s="1">
-        <v>0.85325231481481489</v>
+        <v>0.3616550925925926</v>
       </c>
       <c r="F12" s="1">
-        <v>0.85327546296296297</v>
+        <v>0.36290509259259257</v>
       </c>
       <c r="G12" s="1">
-        <v>3.7060185185185189E-2</v>
+        <v>4.9386574074074076E-2</v>
       </c>
       <c r="H12" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="I12" s="1">
-        <v>3.4722222222222222E-5</v>
+        <v>1.261574074074074E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>0.8555787037037037</v>
+        <v>0.36179398148148145</v>
       </c>
       <c r="E13" s="1">
-        <v>0.8555787037037037</v>
+        <v>0.36179398148148145</v>
       </c>
       <c r="F13" s="1">
-        <v>0.85559027777777785</v>
+        <v>0.36416666666666669</v>
       </c>
       <c r="G13" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>4.9525462962962959E-2</v>
       </c>
       <c r="H13" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="I13" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>2.3726851851851851E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
-        <v>0.85766203703703703</v>
+        <v>0.36179398148148145</v>
       </c>
       <c r="E14" s="1">
-        <v>0.85774305555555552</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="F14" s="1">
-        <v>0.85788194444444443</v>
+        <v>0.36385416666666665</v>
       </c>
       <c r="G14" s="1">
-        <v>4.1469907407407407E-2</v>
+        <v>4.9525462962962959E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>8.1018518518518516E-5</v>
+        <v>2.3148148148148147E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>1.3888888888888889E-4</v>
+        <v>2.0486111111111113E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
-        <v>0.85783564814814817</v>
+        <v>0.36210648148148145</v>
       </c>
       <c r="E15" s="1">
-        <v>0.85788194444444443</v>
+        <v>0.36210648148148145</v>
       </c>
       <c r="F15" s="1">
-        <v>0.85789351851851858</v>
+        <v>0.36456018518518518</v>
       </c>
       <c r="G15" s="1">
-        <v>4.1643518518518517E-2</v>
+        <v>4.9837962962962966E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>4.6296296296296294E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>2.4537037037037036E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>0.85787037037037039</v>
+        <v>0.36216435185185186</v>
       </c>
       <c r="E16" s="1">
-        <v>0.85789351851851858</v>
+        <v>0.36223379629629626</v>
       </c>
       <c r="F16" s="1">
-        <v>0.85791666666666666</v>
+        <v>0.36324074074074075</v>
       </c>
       <c r="G16" s="1">
-        <v>4.1678240740740745E-2</v>
+        <v>4.9895833333333334E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>2.3148148148148147E-5</v>
+        <v>8.1018518518518516E-5</v>
       </c>
       <c r="I16" s="1">
-        <v>3.4722222222222222E-5</v>
+        <v>1.0069444444444444E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1">
-        <v>0.86004629629629636</v>
+        <v>0.36245370370370367</v>
       </c>
       <c r="E17" s="1">
-        <v>0.86004629629629636</v>
+        <v>0.36305555555555552</v>
       </c>
       <c r="F17" s="1">
-        <v>0.86006944444444444</v>
+        <v>0.36453703703703705</v>
       </c>
       <c r="G17" s="1">
-        <v>4.3831018518518512E-2</v>
+        <v>5.0185185185185187E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>6.134259259259259E-4</v>
       </c>
       <c r="I17" s="1">
-        <v>3.4722222222222222E-5</v>
+        <v>1.4814814814814814E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1">
-        <v>0.86015046296296294</v>
+        <v>0.36245370370370367</v>
       </c>
       <c r="E18" s="1">
-        <v>0.86015046296296294</v>
+        <v>0.36390046296296297</v>
       </c>
       <c r="F18" s="1">
-        <v>0.86015046296296294</v>
+        <v>0.36797453703703703</v>
       </c>
       <c r="G18" s="1">
-        <v>4.3935185185185188E-2</v>
+        <v>5.0185185185185187E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>1.4583333333333334E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>4.0740740740740746E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
-        <v>0.86060185185185178</v>
+        <v>0.36116898148148152</v>
       </c>
       <c r="E19" s="1">
-        <v>0.86060185185185178</v>
+        <v>0.38862268518518522</v>
       </c>
       <c r="F19" s="1">
-        <v>0.86061342592592593</v>
+        <v>0.38983796296296297</v>
       </c>
       <c r="G19" s="1">
-        <v>4.4386574074074071E-2</v>
+        <v>4.8900462962962965E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>2.7453703703703702E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>1.2268518518518518E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
-        <v>0.86067129629629635</v>
+        <v>0.36199074074074072</v>
       </c>
       <c r="E20" s="1">
-        <v>0.86067129629629635</v>
+        <v>0.36208333333333331</v>
       </c>
       <c r="F20" s="1">
-        <v>0.86068287037037028</v>
+        <v>0.36209490740740741</v>
       </c>
       <c r="G20" s="1">
-        <v>4.445601851851852E-2</v>
+        <v>4.9722222222222223E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>1.1574074074074073E-5</v>
+        <v>1.0416666666666667E-4</v>
       </c>
       <c r="I20" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1">
-        <v>0.86262731481481481</v>
+        <v>0.36418981481481483</v>
       </c>
       <c r="E21" s="1">
-        <v>0.86262731481481481</v>
+        <v>0.36466435185185181</v>
       </c>
       <c r="F21" s="1">
-        <v>0.86263888888888884</v>
+        <v>0.36467592592592596</v>
       </c>
       <c r="G21" s="1">
-        <v>4.6423611111111117E-2</v>
+        <v>5.1921296296296299E-2</v>
       </c>
       <c r="H21" s="1">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.36446759259259259</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.3646875</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3646875</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.2199074074074071E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.3148148148148146E-4</v>
+      </c>
+      <c r="I22" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="I21" s="1">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.36630787037037038</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.36648148148148146</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.3664930555555555</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.4039351851851852E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.36790509259259258</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.36790509259259258</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.36792824074074071</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.5636574074074074E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.36817129629629625</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.36817129629629625</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.36817129629629625</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.590277777777778E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="I25" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
